--- a/Planeación/Planeacion.xlsx
+++ b/Planeación/Planeacion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Documents\Universidad\5 Semestre\Ingeniería de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Documents\GitHub\Kira\Planeación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>semana</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>codificación</t>
+  </si>
+  <si>
+    <t>Diagrama de contexto 0,1</t>
+  </si>
+  <si>
+    <t>Caso de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de secuencia </t>
+  </si>
+  <si>
+    <t>Caso de prueba, Diagrama de actividades , caso de prueba</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -213,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,14 +509,14 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -572,7 +585,10 @@
       <c r="G3" s="5">
         <v>42220</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="5">
+        <f>G3</f>
+        <v>42220</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -597,7 +613,10 @@
       <c r="G4" s="5">
         <v>42258</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="5">
+        <f>G4</f>
+        <v>42258</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -609,11 +628,19 @@
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="5">
+        <v>42268</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -625,11 +652,19 @@
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="5">
+        <v>42268</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -663,16 +698,25 @@
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>C23</f>
+        <v>AR,JC</v>
+      </c>
       <c r="G8" s="5">
         <v>42272</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="10">
+        <v>42291</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -681,16 +725,25 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>C23</f>
+        <v>AR,JC</v>
+      </c>
       <c r="G9" s="5">
         <v>42279</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="10">
+        <v>42291</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -699,16 +752,25 @@
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>C24</f>
+        <v>JC,AR</v>
+      </c>
       <c r="G10" s="5">
         <v>42286</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="10">
+        <v>42292</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -717,16 +779,25 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>C24</f>
+        <v>JC,AR</v>
+      </c>
       <c r="G11" s="5">
         <v>42293</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="10">
+        <v>42292</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
